--- a/Data/Processed/Angiosperms/missing_powo_ipni/Cleomaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Cleomaceae.xlsx
@@ -982,7 +982,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
